--- a/out/production/SWE_Project/Competitions Participations.xlsx
+++ b/out/production/SWE_Project/Competitions Participations.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mustafa Alsadah\IdeaProjects\untitled41\src\"/>
     </mc:Choice>
@@ -15,10 +15,11 @@
   <sheets>
     <sheet name="STC &amp; Nokia" sheetId="1" r:id="rId1"/>
     <sheet name="CyberHub" sheetId="4" r:id="rId2"/>
+    <sheet name="CTH-v11" r:id="rId9" sheetId="5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
   <si>
     <t>Competition Name</t>
   </si>
@@ -227,12 +228,22 @@
   </si>
   <si>
     <t>Mustafa sadah</t>
+  </si>
+  <si>
+    <t>CTH-v11</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2021-3-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -614,9 +625,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="5" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="2" max="5" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -844,10 +855,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="18.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="15.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.6640625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -976,6 +987,57 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
